--- a/ds attendacetst.xlsx
+++ b/ds attendacetst.xlsx
@@ -549,10 +549,10 @@
         <v>0.0</v>
       </c>
       <c r="E2" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G2" t="n">
         <v>0.0</v>
@@ -593,7 +593,7 @@
         <v>3.0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G3" t="n">
         <v>0.0</v>
@@ -634,7 +634,7 @@
         <v>2.0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G4" t="n">
         <v>0.0</v>
@@ -675,7 +675,7 @@
         <v>2.0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G5" t="n">
         <v>0.0</v>
@@ -716,7 +716,7 @@
         <v>2.0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G6" t="n">
         <v>0.0</v>
@@ -757,7 +757,7 @@
         <v>3.0</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G7" t="n">
         <v>0.0</v>
@@ -798,7 +798,7 @@
         <v>2.0</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G8" t="n">
         <v>0.0</v>
@@ -836,10 +836,10 @@
         <v>0.0</v>
       </c>
       <c r="E9" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G9" t="n">
         <v>0.0</v>
@@ -880,7 +880,7 @@
         <v>2.0</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G10" t="n">
         <v>0.0</v>
@@ -921,7 +921,7 @@
         <v>3.0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G11" t="n">
         <v>0.0</v>
@@ -962,7 +962,7 @@
         <v>2.0</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G12" t="n">
         <v>0.0</v>
@@ -1003,7 +1003,7 @@
         <v>2.0</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G13" t="n">
         <v>0.0</v>
@@ -1044,7 +1044,7 @@
         <v>3.0</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G14" t="n">
         <v>0.0</v>
@@ -1085,7 +1085,7 @@
         <v>2.0</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G15" t="n">
         <v>0.0</v>
@@ -1126,7 +1126,7 @@
         <v>2.0</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G16" t="n">
         <v>0.0</v>
@@ -1167,7 +1167,7 @@
         <v>2.0</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G17" t="n">
         <v>0.0</v>
@@ -1208,7 +1208,7 @@
         <v>2.0</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G18" t="n">
         <v>0.0</v>
@@ -1249,7 +1249,7 @@
         <v>2.0</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G19" t="n">
         <v>0.0</v>
@@ -1290,7 +1290,7 @@
         <v>2.0</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G20" t="n">
         <v>0.0</v>

--- a/ds attendacetst.xlsx
+++ b/ds attendacetst.xlsx
@@ -543,10 +543,10 @@
         <v>0.0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E2" t="n">
         <v>3.0</v>
@@ -584,10 +584,10 @@
         <v>0.0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E3" t="n">
         <v>3.0</v>
@@ -625,10 +625,10 @@
         <v>0.0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E4" t="n">
         <v>2.0</v>
@@ -666,10 +666,10 @@
         <v>0.0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E5" t="n">
         <v>2.0</v>
@@ -707,10 +707,10 @@
         <v>0.0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E6" t="n">
         <v>2.0</v>
@@ -748,10 +748,10 @@
         <v>0.0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E7" t="n">
         <v>3.0</v>
@@ -789,10 +789,10 @@
         <v>0.0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E8" t="n">
         <v>2.0</v>
@@ -830,10 +830,10 @@
         <v>0.0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E9" t="n">
         <v>3.0</v>
@@ -871,10 +871,10 @@
         <v>0.0</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E10" t="n">
         <v>2.0</v>
@@ -912,10 +912,10 @@
         <v>0.0</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E11" t="n">
         <v>3.0</v>
@@ -953,10 +953,10 @@
         <v>0.0</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E12" t="n">
         <v>2.0</v>
@@ -994,10 +994,10 @@
         <v>0.0</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E13" t="n">
         <v>2.0</v>
@@ -1035,10 +1035,10 @@
         <v>0.0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E14" t="n">
         <v>3.0</v>
@@ -1079,7 +1079,7 @@
         <v>0.0</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E15" t="n">
         <v>2.0</v>
@@ -1120,7 +1120,7 @@
         <v>0.0</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E16" t="n">
         <v>2.0</v>
@@ -1161,7 +1161,7 @@
         <v>0.0</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E17" t="n">
         <v>2.0</v>
@@ -1202,7 +1202,7 @@
         <v>0.0</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E18" t="n">
         <v>2.0</v>
@@ -1243,7 +1243,7 @@
         <v>0.0</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E19" t="n">
         <v>2.0</v>
@@ -1281,10 +1281,10 @@
         <v>0.0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0</v>
+        <v>11.0</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E20" t="n">
         <v>2.0</v>
